--- a/template_examples/tcr_adaptive_template.xlsx
+++ b/template_examples/tcr_adaptive_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TCR" sheetId="1" state="visible" r:id="rId2"/>
@@ -271,7 +271,7 @@
     <t xml:space="preserve">Controls</t>
   </si>
   <si>
-    <t xml:space="preserve">Id</t>
+    <t xml:space="preserve">Control id</t>
   </si>
   <si>
     <t xml:space="preserve">neg</t>
@@ -605,7 +605,7 @@
       <selection pane="topLeft" activeCell="A2010" activeCellId="0" sqref="A2010"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -10840,11 +10840,11 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -20930,10 +20930,10 @@
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="1" width="30.7"/>
   </cols>
@@ -21098,11 +21098,11 @@
   </sheetPr>
   <dimension ref="B1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="1" width="30.7"/>
   </cols>
